--- a/public/data/soil/soil_table_mozambique.xlsx
+++ b/public/data/soil/soil_table_mozambique.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3558.9</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>176708.2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.706</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>155.383</v>
+        <v>162.074</v>
       </c>
     </row>
     <row r="3">
@@ -1057,28 +1057,28 @@
         <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9034.7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>132107.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>8.34</v>
+        <v>2.291</v>
       </c>
       <c r="K3" t="n">
-        <v>111.427</v>
+        <v>117.396</v>
       </c>
     </row>
     <row r="4">
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11836.3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164179.9</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.805</v>
+        <v>1.629</v>
       </c>
       <c r="K4" t="n">
-        <v>135.503</v>
+        <v>144.151</v>
       </c>
     </row>
     <row r="5">
@@ -1127,28 +1127,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>89.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>26663.3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>80180.7</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15.277</v>
+        <v>14.75</v>
       </c>
       <c r="K5" t="n">
-        <v>53.493</v>
+        <v>60.05</v>
       </c>
     </row>
     <row r="6">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>16359.1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>16.05</v>
+        <v>19.957</v>
       </c>
     </row>
     <row r="7">
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2732</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113026.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.856</v>
+        <v>0.653</v>
       </c>
       <c r="K7" t="n">
-        <v>20.9</v>
+        <v>22.312</v>
       </c>
     </row>
     <row r="8">
@@ -1232,28 +1232,28 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>21744</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>64138.4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.063</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10.435</v>
+        <v>12.073</v>
       </c>
       <c r="K8" t="n">
-        <v>58.658</v>
+        <v>63.464</v>
       </c>
     </row>
     <row r="9">
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12868</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>343782.4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.514</v>
+        <v>2.455</v>
       </c>
       <c r="K9" t="n">
-        <v>143.863</v>
+        <v>149.335</v>
       </c>
     </row>
     <row r="10">
@@ -1302,28 +1302,28 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>208.9</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>57764.5</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>151667.6</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.907</v>
+        <v>57.896</v>
       </c>
       <c r="K10" t="n">
-        <v>72.678</v>
+        <v>67.749</v>
       </c>
     </row>
     <row r="11">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>31338.9</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>26780.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.326</v>
+        <v>26.23</v>
       </c>
       <c r="K11" t="n">
-        <v>34.195</v>
+        <v>41.171</v>
       </c>
     </row>
     <row r="12">
@@ -1372,16 +1372,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>5275.9</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>213175.5</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3.165</v>
+        <v>1.011</v>
       </c>
       <c r="K12" t="n">
-        <v>177.679</v>
+        <v>173.864</v>
       </c>
     </row>
     <row r="13">
@@ -1407,28 +1407,28 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>56.1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43703.4</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>38517.9</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.368</v>
+        <v>40.01</v>
       </c>
       <c r="K13" t="n">
-        <v>32.984</v>
+        <v>23.714</v>
       </c>
     </row>
     <row r="14">
@@ -1442,28 +1442,28 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>11501.2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2228.9</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30160.2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>21452.8</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.933</v>
+        <v>6.735</v>
       </c>
       <c r="I14" t="n">
-        <v>1.013</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.955</v>
+        <v>26.402</v>
       </c>
       <c r="K14" t="n">
-        <v>9.512</v>
+        <v>8.899</v>
       </c>
     </row>
     <row r="15">
@@ -1477,28 +1477,28 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>47.1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2046.3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>45967</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.081</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>33.552</v>
+        <v>29.516</v>
       </c>
     </row>
     <row r="16">
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5012.8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>33389.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.015</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>24.64</v>
+        <v>31.353</v>
       </c>
     </row>
     <row r="17">
@@ -1547,28 +1547,28 @@
         <v>47</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.7</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>28796.7</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>59738.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.867</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>33.828</v>
+        <v>51.429</v>
       </c>
       <c r="K17" t="n">
-        <v>53.216</v>
+        <v>42.121</v>
       </c>
     </row>
     <row r="18">
@@ -1582,28 +1582,28 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>99.1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>5488.6</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>175438.4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.989</v>
+        <v>5.691</v>
       </c>
       <c r="K18" t="n">
-        <v>93.768</v>
+        <v>94.243</v>
       </c>
     </row>
     <row r="19">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>277532.8</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>37.725</v>
+        <v>40.666</v>
       </c>
     </row>
     <row r="20">
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>239733.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>29.598</v>
+        <v>29.445</v>
       </c>
     </row>
     <row r="21">
@@ -1693,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>33.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>98775.2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>81.017</v>
+        <v>79.334</v>
       </c>
     </row>
     <row r="22">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>101438.8</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>69.98</v>
+        <v>69.729</v>
       </c>
     </row>
     <row r="23">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>142297.6</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>34.094</v>
+        <v>33.914</v>
       </c>
     </row>
     <row r="24">
@@ -1792,28 +1792,28 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>1934.7</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>63378.3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>88403.9</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.757</v>
+        <v>0.291</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>57.406</v>
+        <v>75.211</v>
       </c>
       <c r="K24" t="n">
-        <v>45.702</v>
+        <v>25.443</v>
       </c>
     </row>
     <row r="25">
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122692.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>16.001</v>
+        <v>18.348</v>
       </c>
     </row>
     <row r="26">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>98541.6</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.959</v>
+        <v>31.735</v>
       </c>
     </row>
     <row r="27">
@@ -1897,28 +1897,28 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>72.5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>38957.6</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>49256</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>58.88</v>
+        <v>42.434</v>
       </c>
       <c r="K27" t="n">
-        <v>71.192</v>
+        <v>78.875</v>
       </c>
     </row>
     <row r="28">
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>30223.1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>241804.7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5.637</v>
+        <v>5.356</v>
       </c>
       <c r="K28" t="n">
-        <v>34.193</v>
+        <v>34.273</v>
       </c>
     </row>
     <row r="29">
@@ -1967,28 +1967,28 @@
         <v>60</v>
       </c>
       <c r="D29" t="n">
-        <v>64.4</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>4429.1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>76940</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.705</v>
+        <v>0.424</v>
       </c>
       <c r="K29" t="n">
-        <v>30.136</v>
+        <v>35.133</v>
       </c>
     </row>
     <row r="30">
@@ -2002,28 +2002,28 @@
         <v>61</v>
       </c>
       <c r="D30" t="n">
-        <v>82.3</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>26959.4</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>71251.6</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>36.564</v>
+        <v>60.465</v>
       </c>
       <c r="K30" t="n">
-        <v>70.631</v>
+        <v>56.134</v>
       </c>
     </row>
     <row r="31">
@@ -2037,28 +2037,28 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>2733.2</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63755.9</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>38146.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.255</v>
+        <v>1.086</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>66.468</v>
+        <v>80.047</v>
       </c>
       <c r="K31" t="n">
-        <v>23.461</v>
+        <v>13.334</v>
       </c>
     </row>
     <row r="32">
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5779.1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>93245.8</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.271</v>
+        <v>4.196</v>
       </c>
       <c r="K32" t="n">
-        <v>37.594</v>
+        <v>41.691</v>
       </c>
     </row>
     <row r="33">
@@ -2107,28 +2107,28 @@
         <v>64</v>
       </c>
       <c r="D33" t="n">
-        <v>115.4</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>28034.8</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>31153.1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>40.383</v>
+        <v>65.715</v>
       </c>
       <c r="K33" t="n">
-        <v>42.252</v>
+        <v>30.261</v>
       </c>
     </row>
     <row r="34">
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>11256.8</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>262289.6</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.505</v>
+        <v>1.567</v>
       </c>
       <c r="K34" t="n">
-        <v>37.758</v>
+        <v>38.806</v>
       </c>
     </row>
     <row r="35">
@@ -2177,28 +2177,28 @@
         <v>66</v>
       </c>
       <c r="D35" t="n">
-        <v>39.1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>136638.5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>80586.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>87.196</v>
+        <v>104.891</v>
       </c>
       <c r="K35" t="n">
-        <v>17.79</v>
+        <v>7.239</v>
       </c>
     </row>
     <row r="36">
@@ -2212,28 +2212,28 @@
         <v>67</v>
       </c>
       <c r="D36" t="n">
-        <v>325.8</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>72332.1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>17077.4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>84.554</v>
+        <v>84.133</v>
       </c>
       <c r="K36" t="n">
-        <v>16.541</v>
+        <v>4.798</v>
       </c>
     </row>
     <row r="37">
@@ -2247,28 +2247,28 @@
         <v>68</v>
       </c>
       <c r="D37" t="n">
-        <v>1757.9</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>56938.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>131465.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15.056</v>
+        <v>18.471</v>
       </c>
       <c r="K37" t="n">
-        <v>23.334</v>
+        <v>20.244</v>
       </c>
     </row>
     <row r="38">
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>57046.8</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>109810.7</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>28.079</v>
+        <v>37.318</v>
       </c>
       <c r="K38" t="n">
-        <v>71.607</v>
+        <v>54.664</v>
       </c>
     </row>
     <row r="39">
@@ -2317,28 +2317,28 @@
         <v>70</v>
       </c>
       <c r="D39" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>72777.1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>7569.7</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.291</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>97.666</v>
+        <v>111.475</v>
       </c>
       <c r="K39" t="n">
-        <v>10.212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2352,28 +2352,28 @@
         <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>7008.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>116392.3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>81778.4</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.651</v>
+        <v>0.759</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>102.615</v>
+        <v>139.931</v>
       </c>
       <c r="K40" t="n">
-        <v>70.573</v>
+        <v>40.738</v>
       </c>
     </row>
     <row r="41">
@@ -2387,28 +2387,28 @@
         <v>73</v>
       </c>
       <c r="D41" t="n">
-        <v>269.6</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>41263.2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>233905.7</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.516</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>31.927</v>
+        <v>31.833</v>
       </c>
       <c r="K41" t="n">
-        <v>196.862</v>
+        <v>188.793</v>
       </c>
     </row>
     <row r="42">
@@ -2428,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3203.7</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>130135.8</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.062</v>
+        <v>0.243</v>
       </c>
       <c r="K42" t="n">
-        <v>79.399</v>
+        <v>76.433</v>
       </c>
     </row>
     <row r="43">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1235.3</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>259731.6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.569</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>121.423</v>
+        <v>123.232</v>
       </c>
     </row>
     <row r="44">
@@ -2492,28 +2492,28 @@
         <v>76</v>
       </c>
       <c r="D44" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>37346.7</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>127825.8</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>15.745</v>
+        <v>16.112</v>
       </c>
       <c r="K44" t="n">
-        <v>36.848</v>
+        <v>40.337</v>
       </c>
     </row>
     <row r="45">
@@ -2527,28 +2527,28 @@
         <v>71</v>
       </c>
       <c r="D45" t="n">
-        <v>8202.2</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>71488.3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>108170</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>8.574</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>69.232</v>
+        <v>85.001</v>
       </c>
       <c r="K45" t="n">
-        <v>110.989</v>
+        <v>102.222</v>
       </c>
     </row>
     <row r="46">
@@ -2562,28 +2562,28 @@
         <v>77</v>
       </c>
       <c r="D46" t="n">
-        <v>3859.2</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>640.9</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>51101.8</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>155086.5</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.725</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>77.163</v>
+        <v>99.367</v>
       </c>
       <c r="K46" t="n">
-        <v>202.297</v>
+        <v>174.208</v>
       </c>
     </row>
     <row r="47">
@@ -2597,28 +2597,28 @@
         <v>78</v>
       </c>
       <c r="D47" t="n">
-        <v>16458.5</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>146.5</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>108731</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>96970.7</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>13.164</v>
+        <v>12.047</v>
       </c>
       <c r="I47" t="n">
-        <v>0.138</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>68.591</v>
+        <v>94.155</v>
       </c>
       <c r="K47" t="n">
-        <v>60.174</v>
+        <v>41.806</v>
       </c>
     </row>
     <row r="48">
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>122.8</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>45359.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>35.808</v>
+        <v>49.349</v>
       </c>
     </row>
     <row r="49">
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>8553</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>7.405</v>
+        <v>7.795</v>
       </c>
     </row>
     <row r="50">
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>24493.3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>5.936</v>
+        <v>6.306</v>
       </c>
     </row>
     <row r="51">
@@ -2743,10 +2743,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>112.8</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>35258.5</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>41.618</v>
+        <v>33.627</v>
       </c>
     </row>
     <row r="52">
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>57.3</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>161135.8</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>56.863</v>
+        <v>62.526</v>
       </c>
     </row>
     <row r="53">
@@ -2807,28 +2807,28 @@
         <v>84</v>
       </c>
       <c r="D53" t="n">
-        <v>1297.4</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>15865.6</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>90591.6</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5.775</v>
+        <v>5.39</v>
       </c>
       <c r="K53" t="n">
-        <v>70.059</v>
+        <v>60.354</v>
       </c>
     </row>
     <row r="54">
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>6806.7</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>23829.6</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.792</v>
+        <v>6.791</v>
       </c>
       <c r="K54" t="n">
-        <v>17.993</v>
+        <v>19.825</v>
       </c>
     </row>
     <row r="55">
@@ -2877,28 +2877,28 @@
         <v>86</v>
       </c>
       <c r="D55" t="n">
-        <v>2359.7</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>14860.3</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>97106</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.236</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.492</v>
+        <v>4.282</v>
       </c>
       <c r="K55" t="n">
-        <v>23.142</v>
+        <v>30.624</v>
       </c>
     </row>
     <row r="56">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>127863.2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>54.657</v>
+        <v>59.977</v>
       </c>
     </row>
     <row r="57">
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>6848.9</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>59355.6</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>5.398</v>
+        <v>2.623</v>
       </c>
       <c r="K57" t="n">
-        <v>31.085</v>
+        <v>33.183</v>
       </c>
     </row>
     <row r="58">
@@ -2985,25 +2985,25 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>24.1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>102781.3</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>133.165</v>
+        <v>163.026</v>
       </c>
     </row>
     <row r="59">
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>9630.2</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>114931.8</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>12.884</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>108.826</v>
+        <v>111.619</v>
       </c>
     </row>
     <row r="60">
@@ -3058,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3290.3</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>126160.3</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.118</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>83.379</v>
+        <v>87.11</v>
       </c>
     </row>
     <row r="61">
@@ -3087,28 +3087,28 @@
         <v>93</v>
       </c>
       <c r="D61" t="n">
-        <v>737.4</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>616.9</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>7418</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>180167.9</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1.259</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.537</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.076</v>
+        <v>8.17</v>
       </c>
       <c r="K61" t="n">
-        <v>151.932</v>
+        <v>169.172</v>
       </c>
     </row>
     <row r="62">
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>205.3</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>155065.2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>129.503</v>
+        <v>122.538</v>
       </c>
     </row>
     <row r="63">
@@ -3163,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>13576.5</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>237301.1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>6.194</v>
+        <v>3.114</v>
       </c>
       <c r="K63" t="n">
-        <v>159.245</v>
+        <v>171.93</v>
       </c>
     </row>
     <row r="64">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>631.8</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>140258.7</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.615</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>233.094</v>
+        <v>230.929</v>
       </c>
     </row>
     <row r="65">
@@ -3233,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>3308</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>226578.2</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>5.257</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>285.834</v>
+        <v>294.169</v>
       </c>
     </row>
     <row r="66">
@@ -3265,25 +3265,25 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>5081.7</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>206885.3</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>6.967</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>228.39</v>
+        <v>254.127</v>
       </c>
     </row>
     <row r="67">
@@ -3303,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>7203.4</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>157794.4</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>14.517</v>
+        <v>6.463</v>
       </c>
       <c r="K67" t="n">
-        <v>172.711</v>
+        <v>168.545</v>
       </c>
     </row>
     <row r="68">
@@ -3335,25 +3335,25 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>60.1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>131596.3</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>121.958</v>
+        <v>121.118</v>
       </c>
     </row>
     <row r="69">
@@ -3367,28 +3367,28 @@
         <v>101</v>
       </c>
       <c r="D69" t="n">
-        <v>149.6</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>4846.9</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>95344.2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>5.402</v>
+        <v>0.667</v>
       </c>
       <c r="K69" t="n">
-        <v>85.786</v>
+        <v>97.513</v>
       </c>
     </row>
     <row r="70">
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>19175.8</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>135713.5</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>12.782</v>
+        <v>9.544</v>
       </c>
       <c r="K70" t="n">
-        <v>98.33</v>
+        <v>105.528</v>
       </c>
     </row>
     <row r="71">
@@ -3437,28 +3437,28 @@
         <v>103</v>
       </c>
       <c r="D71" t="n">
-        <v>59.7</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>8986.4</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>116341.8</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>15.378</v>
+        <v>15.231</v>
       </c>
       <c r="K71" t="n">
-        <v>138.572</v>
+        <v>135.905</v>
       </c>
     </row>
     <row r="72">
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>61688.4</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>59.799</v>
+        <v>66.82</v>
       </c>
     </row>
     <row r="73">
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>8199.8</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>209766.3</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>14.429</v>
+        <v>1.463</v>
       </c>
       <c r="K73" t="n">
-        <v>242.57</v>
+        <v>265.441</v>
       </c>
     </row>
     <row r="74">
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>5773.5</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>180881.2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>5.763</v>
+        <v>3.505</v>
       </c>
       <c r="K74" t="n">
-        <v>212.16</v>
+        <v>203.09</v>
       </c>
     </row>
     <row r="75">
@@ -3577,28 +3577,28 @@
         <v>106</v>
       </c>
       <c r="D75" t="n">
-        <v>236.9</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>26543.2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>182230.7</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.506</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>15.03</v>
+        <v>19.372</v>
       </c>
       <c r="K75" t="n">
-        <v>179.917</v>
+        <v>188.883</v>
       </c>
     </row>
     <row r="76">
@@ -3612,28 +3612,28 @@
         <v>108</v>
       </c>
       <c r="D76" t="n">
-        <v>846.8</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>13645.7</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>169744.1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.086</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>8.545</v>
+        <v>3.358</v>
       </c>
       <c r="K76" t="n">
-        <v>130.43</v>
+        <v>118.942</v>
       </c>
     </row>
     <row r="77">
@@ -3647,28 +3647,28 @@
         <v>109</v>
       </c>
       <c r="D77" t="n">
-        <v>2018.8</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>76.2</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>31228.7</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>100929.4</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1.774</v>
+        <v>1.708</v>
       </c>
       <c r="I77" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>27.374</v>
+        <v>61.083</v>
       </c>
       <c r="K77" t="n">
-        <v>62.664</v>
+        <v>53.394</v>
       </c>
     </row>
     <row r="78">
@@ -3682,28 +3682,28 @@
         <v>110</v>
       </c>
       <c r="D78" t="n">
-        <v>6733.3</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>33456.8</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>107253.9</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>3.222</v>
+        <v>3.385</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>25.727</v>
+        <v>34.543</v>
       </c>
       <c r="K78" t="n">
-        <v>94.405</v>
+        <v>99.188</v>
       </c>
     </row>
     <row r="79">
@@ -3717,28 +3717,28 @@
         <v>111</v>
       </c>
       <c r="D79" t="n">
-        <v>4414.4</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>53914.5</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>145161.8</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.486</v>
+        <v>0.502</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>9.637</v>
+        <v>15.942</v>
       </c>
       <c r="K79" t="n">
-        <v>28.143</v>
+        <v>24.836</v>
       </c>
     </row>
     <row r="80">
@@ -3752,28 +3752,28 @@
         <v>112</v>
       </c>
       <c r="D80" t="n">
-        <v>2029.7</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>87.4</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>15386.4</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>90027.5</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.376</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.057</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>6.18</v>
+        <v>6.311</v>
       </c>
       <c r="K80" t="n">
-        <v>41.702</v>
+        <v>39.461</v>
       </c>
     </row>
     <row r="81">
@@ -3787,28 +3787,28 @@
         <v>113</v>
       </c>
       <c r="D81" t="n">
-        <v>1559.2</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>66.1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>35271.3</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>264599.3</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.279</v>
+        <v>0.213</v>
       </c>
       <c r="I81" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>5.487</v>
+        <v>6.347</v>
       </c>
       <c r="K81" t="n">
-        <v>53.795</v>
+        <v>55.889</v>
       </c>
     </row>
     <row r="82">
@@ -3822,28 +3822,28 @@
         <v>114</v>
       </c>
       <c r="D82" t="n">
-        <v>1935.4</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>35215.4</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>135703.3</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.801</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>12.06</v>
+        <v>18.524</v>
       </c>
       <c r="K82" t="n">
-        <v>41.248</v>
+        <v>39.026</v>
       </c>
     </row>
     <row r="83">
@@ -3857,28 +3857,28 @@
         <v>115</v>
       </c>
       <c r="D83" t="n">
-        <v>2938.4</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>63343.5</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>75806.5</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.11</v>
+        <v>0.475</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>16.64</v>
+        <v>19.956</v>
       </c>
       <c r="K83" t="n">
-        <v>12.729</v>
+        <v>11.707</v>
       </c>
     </row>
     <row r="84">
@@ -3892,28 +3892,28 @@
         <v>116</v>
       </c>
       <c r="D84" t="n">
-        <v>84.9</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>21257.4</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>215511.4</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>31.548</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>283.503</v>
+        <v>318.368</v>
       </c>
     </row>
     <row r="85">
@@ -3927,28 +3927,28 @@
         <v>117</v>
       </c>
       <c r="D85" t="n">
-        <v>563.6</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>31991</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>283845.7</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.859</v>
+        <v>1.139</v>
       </c>
       <c r="K85" t="n">
-        <v>16.704</v>
+        <v>17.626</v>
       </c>
     </row>
     <row r="86">
@@ -3962,28 +3962,28 @@
         <v>118</v>
       </c>
       <c r="D86" t="n">
-        <v>1238.1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>13868.8</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>95596.2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>4.841</v>
+        <v>5.998</v>
       </c>
       <c r="K86" t="n">
-        <v>33.611</v>
+        <v>31.706</v>
       </c>
     </row>
     <row r="87">
@@ -3997,28 +3997,28 @@
         <v>119</v>
       </c>
       <c r="D87" t="n">
-        <v>24084.8</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>68168.9</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>15260.2</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>5.136</v>
+        <v>6.593</v>
       </c>
       <c r="I87" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>23.812</v>
+        <v>34.241</v>
       </c>
       <c r="K87" t="n">
-        <v>9.801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4032,28 +4032,28 @@
         <v>120</v>
       </c>
       <c r="D88" t="n">
-        <v>1522.8</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>73.2</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>11018.3</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>68685.5</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.785</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>8.133</v>
+        <v>5.566</v>
       </c>
       <c r="K88" t="n">
-        <v>95.075</v>
+        <v>96.388</v>
       </c>
     </row>
     <row r="89">
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>4039</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>106993.9</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.144</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>29.573</v>
+        <v>32.549</v>
       </c>
     </row>
     <row r="90">
@@ -4102,28 +4102,28 @@
         <v>122</v>
       </c>
       <c r="D90" t="n">
-        <v>1134.4</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>102000.6</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>181844.6</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>35.651</v>
+        <v>49.439</v>
       </c>
       <c r="K90" t="n">
-        <v>29.766</v>
+        <v>16.318</v>
       </c>
     </row>
     <row r="91">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>19540.6</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>208899.9</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>10.529</v>
+        <v>8.819</v>
       </c>
       <c r="K91" t="n">
-        <v>118.723</v>
+        <v>122.251</v>
       </c>
     </row>
     <row r="92">
@@ -4178,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>3574.4</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>84693.6</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.519</v>
+        <v>1.508</v>
       </c>
       <c r="K92" t="n">
-        <v>95.591</v>
+        <v>96.466</v>
       </c>
     </row>
     <row r="93">
@@ -4213,10 +4213,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>132.8</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>83365.2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4225,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.263</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>69.295</v>
+        <v>65.348</v>
       </c>
     </row>
     <row r="94">
@@ -4242,28 +4242,28 @@
         <v>127</v>
       </c>
       <c r="D94" t="n">
-        <v>3071</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>77.1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>53735.4</v>
+        <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>53284</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.098</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>19.34</v>
+        <v>20.261</v>
       </c>
       <c r="K94" t="n">
-        <v>30.816</v>
+        <v>31.735</v>
       </c>
     </row>
     <row r="95">
@@ -4283,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>6865.1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>209311.8</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4295,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>4.588</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>123.107</v>
+        <v>133.609</v>
       </c>
     </row>
     <row r="96">
@@ -4315,25 +4315,25 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>36.3</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>29647.9</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>56819.2</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>21.579</v>
+        <v>26.643</v>
       </c>
       <c r="K96" t="n">
-        <v>69.717</v>
+        <v>75.037</v>
       </c>
     </row>
     <row r="97">
@@ -4347,28 +4347,28 @@
         <v>130</v>
       </c>
       <c r="D97" t="n">
-        <v>4257.2</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>37664.6</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>129493.8</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1.962</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>33.383</v>
+        <v>36.111</v>
       </c>
       <c r="K97" t="n">
-        <v>104.842</v>
+        <v>113.877</v>
       </c>
     </row>
     <row r="98">
@@ -4388,10 +4388,10 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>644.2</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>103520.8</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4400,10 +4400,10 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>36.537</v>
+        <v>42.103</v>
       </c>
     </row>
     <row r="99">
@@ -4417,28 +4417,28 @@
         <v>132</v>
       </c>
       <c r="D99" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>4307.3</v>
+        <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>107782.9</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.866</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>82.489</v>
+        <v>88.839</v>
       </c>
     </row>
     <row r="100">
@@ -4452,28 +4452,28 @@
         <v>133</v>
       </c>
       <c r="D100" t="n">
-        <v>3623.9</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>252.1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>50958.8</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>69301.1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>6.107</v>
+        <v>0.949</v>
       </c>
       <c r="I100" t="n">
-        <v>0.409</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>34.975</v>
+        <v>50.108</v>
       </c>
       <c r="K100" t="n">
-        <v>96.416</v>
+        <v>80.267</v>
       </c>
     </row>
     <row r="101">
@@ -4487,28 +4487,28 @@
         <v>134</v>
       </c>
       <c r="D101" t="n">
-        <v>1505.5</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>106025.1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>25688</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>33.965</v>
+        <v>37.058</v>
       </c>
       <c r="K101" t="n">
-        <v>7.244</v>
+        <v>4.869</v>
       </c>
     </row>
     <row r="102">
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4305.7</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>155207.8</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4540,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.982</v>
+        <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>211.509</v>
+        <v>184.134</v>
       </c>
     </row>
     <row r="103">
@@ -4557,28 +4557,28 @@
         <v>137</v>
       </c>
       <c r="D103" t="n">
-        <v>226.8</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>10428</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>169874.8</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>8.217</v>
+        <v>4.385</v>
       </c>
       <c r="K103" t="n">
-        <v>228.64</v>
+        <v>225.829</v>
       </c>
     </row>
     <row r="104">
@@ -4598,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>649.9</v>
+        <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>147340.4</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4610,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>88.5</v>
+        <v>94.319</v>
       </c>
     </row>
     <row r="105">
@@ -4633,10 +4633,10 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>3540.9</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>178559.2</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.163</v>
+        <v>0.447</v>
       </c>
       <c r="K105" t="n">
-        <v>189.672</v>
+        <v>187.736</v>
       </c>
     </row>
     <row r="106">
@@ -4662,28 +4662,28 @@
         <v>140</v>
       </c>
       <c r="D106" t="n">
-        <v>55.4</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>27331.8</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>195631.9</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.148</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>30.63</v>
+        <v>34.101</v>
       </c>
       <c r="K106" t="n">
-        <v>154.354</v>
+        <v>175.405</v>
       </c>
     </row>
     <row r="107">
@@ -4697,28 +4697,28 @@
         <v>141</v>
       </c>
       <c r="D107" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>13276.2</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>117052.5</v>
+        <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>0.185</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>9.394</v>
+        <v>13.479</v>
       </c>
       <c r="K107" t="n">
-        <v>94.341</v>
+        <v>97.231</v>
       </c>
     </row>
     <row r="108">
@@ -4732,28 +4732,28 @@
         <v>142</v>
       </c>
       <c r="D108" t="n">
-        <v>201</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>54732.1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>102835.9</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>83.366</v>
+        <v>114.651</v>
       </c>
       <c r="K108" t="n">
-        <v>131.493</v>
+        <v>127.607</v>
       </c>
     </row>
     <row r="109">
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>127543.2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>121.103</v>
+        <v>131.969</v>
       </c>
     </row>
     <row r="110">
@@ -4808,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>44409.1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>306929.6</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4820,10 +4820,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>16.19</v>
+        <v>11.403</v>
       </c>
       <c r="K110" t="n">
-        <v>113.552</v>
+        <v>121.159</v>
       </c>
     </row>
     <row r="111">
@@ -4837,28 +4837,28 @@
         <v>145</v>
       </c>
       <c r="D111" t="n">
-        <v>47.7</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>6892.1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>196902.9</v>
+        <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>18.462</v>
+        <v>15.919</v>
       </c>
       <c r="K111" t="n">
-        <v>290.391</v>
+        <v>292.754</v>
       </c>
     </row>
     <row r="112">
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>159559.9</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>361.362</v>
+        <v>333.646</v>
       </c>
     </row>
     <row r="113">
@@ -4907,28 +4907,28 @@
         <v>147</v>
       </c>
       <c r="D113" t="n">
-        <v>13456.6</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>11061.9</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>37185.5</v>
+        <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>87772.6</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>9.55</v>
+        <v>17.133</v>
       </c>
       <c r="I113" t="n">
-        <v>12.188</v>
+        <v>9.022</v>
       </c>
       <c r="J113" t="n">
-        <v>36.153</v>
+        <v>39.028</v>
       </c>
       <c r="K113" t="n">
-        <v>128.903</v>
+        <v>150.453</v>
       </c>
     </row>
     <row r="114">
@@ -4942,28 +4942,28 @@
         <v>148</v>
       </c>
       <c r="D114" t="n">
-        <v>236.9</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>88110.3</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>150440.9</v>
+        <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>36.57</v>
+        <v>33.404</v>
       </c>
       <c r="K114" t="n">
-        <v>59.826</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="115">
@@ -4977,28 +4977,28 @@
         <v>150</v>
       </c>
       <c r="D115" t="n">
-        <v>193.6</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>69930.1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>176553.3</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0.636</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>59.307</v>
+        <v>50.624</v>
       </c>
       <c r="K115" t="n">
-        <v>274.485</v>
+        <v>281.513</v>
       </c>
     </row>
     <row r="116">
@@ -5012,28 +5012,28 @@
         <v>151</v>
       </c>
       <c r="D116" t="n">
-        <v>93.8</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>475.9</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>13757.4</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>87982.8</v>
+        <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1.027</v>
+        <v>1.949</v>
       </c>
       <c r="J116" t="n">
-        <v>15.877</v>
+        <v>25.558</v>
       </c>
       <c r="K116" t="n">
-        <v>53.054</v>
+        <v>61.978</v>
       </c>
     </row>
     <row r="117">
@@ -5047,28 +5047,28 @@
         <v>152</v>
       </c>
       <c r="D117" t="n">
-        <v>109.8</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>68976.3</v>
+        <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>193498</v>
+        <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>44.606</v>
+        <v>35.663</v>
       </c>
       <c r="K117" t="n">
-        <v>161.784</v>
+        <v>171.107</v>
       </c>
     </row>
     <row r="118">
@@ -5082,28 +5082,28 @@
         <v>153</v>
       </c>
       <c r="D118" t="n">
-        <v>5287.6</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>2858.8</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>32143</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>161809.7</v>
+        <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>8.267</v>
+        <v>8.79</v>
       </c>
       <c r="I118" t="n">
-        <v>4.298</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>48.105</v>
+        <v>61.567</v>
       </c>
       <c r="K118" t="n">
-        <v>236.45</v>
+        <v>256.662</v>
       </c>
     </row>
     <row r="119">
@@ -5117,28 +5117,28 @@
         <v>154</v>
       </c>
       <c r="D119" t="n">
-        <v>205.2</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>66933.7</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>171841.8</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>79.779</v>
+        <v>89.849</v>
       </c>
       <c r="K119" t="n">
-        <v>234.883</v>
+        <v>208.468</v>
       </c>
     </row>
     <row r="120">
@@ -5158,10 +5158,10 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>5888</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>15237.2</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>12.142</v>
+        <v>10.294</v>
       </c>
       <c r="K120" t="n">
-        <v>32.363</v>
+        <v>49.39</v>
       </c>
     </row>
     <row r="121">
@@ -5187,28 +5187,28 @@
         <v>156</v>
       </c>
       <c r="D121" t="n">
-        <v>15695.9</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>95724.8</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>49151.9</v>
+        <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>24.894</v>
+        <v>19.121</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>85.054</v>
+        <v>112.775</v>
       </c>
       <c r="K121" t="n">
-        <v>31.91</v>
+        <v>20.597</v>
       </c>
     </row>
     <row r="122">
@@ -5222,28 +5222,28 @@
         <v>157</v>
       </c>
       <c r="D122" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>130.6</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>71698.6</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>129689.9</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>72.33</v>
+        <v>72.323</v>
       </c>
       <c r="K122" t="n">
-        <v>175.492</v>
+        <v>189.664</v>
       </c>
     </row>
     <row r="123">
@@ -5257,28 +5257,28 @@
         <v>158</v>
       </c>
       <c r="D123" t="n">
-        <v>7102.1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>8776.6</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>96215.3</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>315350.4</v>
+        <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>7.155</v>
+        <v>1.152</v>
       </c>
       <c r="I123" t="n">
-        <v>7.726</v>
+        <v>1.439</v>
       </c>
       <c r="J123" t="n">
-        <v>71.139</v>
+        <v>64.019</v>
       </c>
       <c r="K123" t="n">
-        <v>429.83</v>
+        <v>448.134</v>
       </c>
     </row>
     <row r="124">
@@ -5292,28 +5292,28 @@
         <v>159</v>
       </c>
       <c r="D124" t="n">
-        <v>1143.9</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>121827.7</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>163670.6</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>0.842</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>96.565</v>
+        <v>91.71</v>
       </c>
       <c r="K124" t="n">
-        <v>184.46</v>
+        <v>186.457</v>
       </c>
     </row>
     <row r="125">
@@ -5327,28 +5327,28 @@
         <v>160</v>
       </c>
       <c r="D125" t="n">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>34271.9</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>159594.6</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0.069</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0.083</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>21.07</v>
+        <v>16.053</v>
       </c>
       <c r="K125" t="n">
-        <v>132.355</v>
+        <v>140.652</v>
       </c>
     </row>
     <row r="126">
@@ -5362,28 +5362,28 @@
         <v>161</v>
       </c>
       <c r="D126" t="n">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>61853.2</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>307660.5</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>0.711</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>49.224</v>
+        <v>59.609</v>
       </c>
       <c r="K126" t="n">
-        <v>354.029</v>
+        <v>378.215</v>
       </c>
     </row>
     <row r="127">
@@ -5397,28 +5397,28 @@
         <v>162</v>
       </c>
       <c r="D127" t="n">
-        <v>8.7</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>6639.2</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>81523.9</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>12.259</v>
+        <v>18.593</v>
       </c>
       <c r="K127" t="n">
-        <v>125.061</v>
+        <v>130.147</v>
       </c>
     </row>
     <row r="128">
@@ -5432,28 +5432,28 @@
         <v>163</v>
       </c>
       <c r="D128" t="n">
-        <v>3221.4</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>498.9</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>69099.3</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>42258</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>4.244</v>
+        <v>1.673</v>
       </c>
       <c r="I128" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>89.278</v>
+        <v>90.218</v>
       </c>
       <c r="K128" t="n">
-        <v>53.245</v>
+        <v>62.358</v>
       </c>
     </row>
     <row r="129">
@@ -5467,28 +5467,28 @@
         <v>164</v>
       </c>
       <c r="D129" t="n">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>26313</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>94481.4</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>38.237</v>
+        <v>40.049</v>
       </c>
       <c r="K129" t="n">
-        <v>113.82</v>
+        <v>105.632</v>
       </c>
     </row>
     <row r="130">
@@ -5502,28 +5502,28 @@
         <v>165</v>
       </c>
       <c r="D130" t="n">
-        <v>488.2</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>482.6</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>61269.9</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
-        <v>169740.4</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1.886</v>
+        <v>2.425</v>
       </c>
       <c r="I130" t="n">
-        <v>1.824</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>39.276</v>
+        <v>44.356</v>
       </c>
       <c r="K130" t="n">
-        <v>142.892</v>
+        <v>159.876</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_mozambique.xlsx
+++ b/public/data/soil/soil_table_mozambique.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -1028,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1071.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>66153.3</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1112.9</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>35619.9</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2540.8</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>54613.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>11178.7</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28944.9</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>8571.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2682</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>28882.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1238,10 +1238,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>13045.7</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>22751.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>4053.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>90210.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>18715.6</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>44679.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>12520.7</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>19632.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>770.8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>63391.2</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>20477.3</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>14191.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1442,16 +1442,16 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3032.6</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8205.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>11973.5</v>
       </c>
       <c r="H14" t="n">
         <v>6.735</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>17675.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>967.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15935.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1553,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>19485.3</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>26496.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>48</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>326.7</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2116.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>62868.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>21365.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>45303</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>65437.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>40979.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>21481</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1792,16 +1792,16 @@
         <v>54</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>326.7</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>38117.6</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>23642.5</v>
       </c>
       <c r="H24" t="n">
         <v>0.291</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>23115.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>12728</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>29949.4</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>25987.8</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4639.6</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>35786.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>317.5</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>10699.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>20596.7</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>28186.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2037,16 +2037,16 @@
         <v>62</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>948.3</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>41621.7</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9105.5</v>
       </c>
       <c r="H31" t="n">
         <v>1.086</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1580.1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9935</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2113,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>24173.3</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>14534.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2148,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>626.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>38684</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>55847.5</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3110.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>40879.6</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3427.9</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>16954.2</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>30466.7</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>18535.7</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>18342.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         <v>70</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>948.3</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>50704.9</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2352,16 +2352,16 @@
         <v>72</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1177.1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>50914.2</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>21520</v>
       </c>
       <c r="H40" t="n">
         <v>0.759</v>
@@ -2393,10 +2393,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>11460.7</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73069</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2428,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>486.7</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>76567.2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>869.2</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92682</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2498,10 +2498,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10641.4</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>42805.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>71</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3488.3</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>40601.3</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>36025.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>77</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3171.5</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>27926.2</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>59518.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2597,16 +2597,16 @@
         <v>78</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>4721.7</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>40293.4</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>23017.7</v>
       </c>
       <c r="H47" t="n">
         <v>12.047</v>
@@ -2638,10 +2638,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>486.7</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>44782.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>8205.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2711,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>29105.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>20868.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>40062.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2813,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>7153.7</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>52901</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>4971.2</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>15189.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>19139</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>28840.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2526.2</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>20207.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>68187.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1776.7</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>60839.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>31932.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3093,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2184</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>60108.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>56566.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3163,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1551.2</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>71674.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1077.7</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>78789.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>102728.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>748.5</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>106167.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3303,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1776.7</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>95203</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>44761.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3373,10 +3373,10 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>264.5</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>51428.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>2477.2</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>59063.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3443,10 +3443,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>3675.6</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>47536</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>42195.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1077.7</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>116433.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1740.4</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>90709.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3583,10 +3583,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>4830.7</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>67504.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3618,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2476</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>57544.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3647,16 +3647,16 @@
         <v>109</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>541.9</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>9855.2</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>11894.9</v>
       </c>
       <c r="H77" t="n">
         <v>1.708</v>
@@ -3682,16 +3682,16 @@
         <v>110</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1565.3</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>13355.6</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>38679.4</v>
       </c>
       <c r="H78" t="n">
         <v>3.385</v>
@@ -3717,16 +3717,16 @@
         <v>111</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>201.2</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1979.4</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4352.9</v>
       </c>
       <c r="H79" t="n">
         <v>0.502</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>400.6</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>14122.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1864.3</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>35732.8</v>
       </c>
       <c r="H81" t="n">
         <v>0.213</v>
@@ -3828,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3312.6</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>7761.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3857,16 +3857,16 @@
         <v>115</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1541.4</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>3155.8</v>
       </c>
       <c r="H83" t="n">
         <v>0.475</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1891.3</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>127695.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3933,10 +3933,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>214.9</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>35070.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>7998.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3997,16 +3997,16 @@
         <v>119</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1272.8</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>9185.1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>240.9</v>
       </c>
       <c r="H87" t="n">
         <v>6.593</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>2662.1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>25489.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>249.4</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>11232.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4108,10 +4108,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>17903.7</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>8980.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>5848.6</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>50353.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4178,10 +4178,10 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1669.9</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>56772.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>51087.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>2502.4</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>11227</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>44041.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>16184.2</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>39274.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4353,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>7302.6</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>36246.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>22963.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>52714.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4458,10 +4458,10 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>11417.4</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>24768</v>
       </c>
       <c r="H100" t="n">
         <v>0.949</v>
@@ -4493,10 +4493,10 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>14231.2</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>4018.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4528,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>69880</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4563,10 +4563,10 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>3121.8</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>124934.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>167849</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>181164.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4668,10 +4668,10 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>2902.9</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>33111.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>1859.4</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>56651.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4738,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>17479.6</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>34061.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>141372.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1743.9</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>83356.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4843,10 +4843,10 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1824.4</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>146746.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>144555.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4907,16 +4907,16 @@
         <v>147</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>4648.3</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>5186.4</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>10215.7</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>57969.6</v>
       </c>
       <c r="H113" t="n">
         <v>17.133</v>
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>5351.5</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>37018.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4983,10 +4983,10 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>21662.2</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>72672</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -5018,10 +5018,10 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>4839.6</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>23812.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>3725.2</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>50728.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5082,16 +5082,16 @@
         <v>153</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1960.7</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>17470.1</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>79091.6</v>
       </c>
       <c r="H118" t="n">
         <v>8.79</v>
@@ -5123,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>33073.8</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>65925.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>6552.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5187,16 +5187,16 @@
         <v>156</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>624.6</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>28893.8</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>12693</v>
       </c>
       <c r="H121" t="n">
         <v>19.121</v>
@@ -5228,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>20514.9</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>57398.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5257,16 +5257,16 @@
         <v>158</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1937</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1372.8</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>25813.9</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>134154.4</v>
       </c>
       <c r="H123" t="n">
         <v>1.152</v>
@@ -5298,10 +5298,10 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>14439.2</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>49377.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1656.2</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>47424.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>6541.7</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>134091.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5403,10 +5403,10 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>4201.4</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>44349.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>28339</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>24026.2</v>
       </c>
       <c r="H128" t="n">
         <v>1.673</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>4023.3</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>37156.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5502,16 +5502,16 @@
         <v>165</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>848.1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>6725.7</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>54238.2</v>
       </c>
       <c r="H130" t="n">
         <v>2.425</v>
